--- a/铝/eta/氧化铝周度表需Non-Trend_F0.2_合并数据.xlsx
+++ b/铝/eta/氧化铝周度表需Non-Trend_F0.2_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="3">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="8">
